--- a/微信企业号应用需求搜集单.xlsx
+++ b/微信企业号应用需求搜集单.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="1" r:id="rId1"/>
     <sheet name="签到" sheetId="2" r:id="rId2"/>
-    <sheet name="报销" sheetId="3" r:id="rId3"/>
-    <sheet name="审批" sheetId="4" r:id="rId4"/>
-    <sheet name="请假" sheetId="5" r:id="rId5"/>
+    <sheet name="请假" sheetId="5" r:id="rId3"/>
+    <sheet name="报销" sheetId="3" r:id="rId4"/>
+    <sheet name="审批" sheetId="4" r:id="rId5"/>
     <sheet name="会议室预定" sheetId="6" r:id="rId6"/>
     <sheet name="项目管理" sheetId="7" r:id="rId7"/>
   </sheets>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="34">
   <si>
     <t>应用名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,13 +50,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>应用包括三个模块：签到处、发起签到、记录查询。
-“签到处”包括：考勤签到、其他签到两个菜单；
-“发起签到”的功能是加班、召开会议或举办活动时，发起一次签到并选择参与人，参与人会在其他签到菜单下看到该次签到。
-“记录查询”的功能是显示用户月度考勤次数、工作时长以及加班、会议、活动的出勤次数。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>请假</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -77,31 +70,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>应用包括三个模块：预定会议室、会议室查询、会议查询。
-“预定会议室”的功能是填写一个会议信息并预定某会议室的某个时段；
-“会议室查询”的功能是显示会议室当日的预定情况；
-“会议查询”包括：待参加、已参加两个模块，分别显示当前用户未参加及已参加的会议。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>审批</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>处理公司日常的审批事务。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>应用包括三个模块：我的审批、审核记录。
-“我的审批”包括：发起审批、审批记录。发起审批的功能是添加一个审批申请，包括普通审批、合同审批，发起普通审批需填写流程名称、审批内容、相关材料扫描件、审核人及抄送人；发起合同审批需填写流程名称、审批内容、合同编号、合作方名称、合同等相关资料扫描件、审核人及抄送人。审批记录的功能是显示当前用户发起的审批处理情况，包括待处理、处理中、已处理。
-“审核记录”的功能是显示当前用户作为审核人的待处理、已通过、已驳回的审批。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>应用包括三个模块：请假、请假记录、审核记录。
-“请假”的功能为填写请假申请信息；
-“请假记录”的功能是显示当前用户的请假历史记录，包括待审核、审核中、已审核；
-“审核记录”的功能是显示当前用户需审核及已审核的请假记录。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -175,22 +148,83 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>应用包括三个模块：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>应用包括三个模块：新建报销、报销记录、审批记录。
-“新建报销”包括：即发起一个报销申请，需填写报销类型（普通费用报销、旅差费报销）、报销事由、报销单及发票扫描件、备注、审核人；
-“报销记录”显示当前用户创建的未审核、审核中及已审核的报销情况。
-“审批记录”的功能是显示当前用户作为审核人的待审批、已审批的记录。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>应用包括三个模块：签到处、发起签到、记录查询。
+“签到处”的功能是显示当日需要处理的签到；
+“发起签到”的功能是加班、召开会议或举办活动时，发起一次签到并选择参与人，参与人会在其他签到菜单下看到该次签到。
+“记录查询”的功能是显示用户月度考勤次数、工作时长以及加班、会议、活动的出勤率。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用包括三个模块：我的报销、审核记录、财务处理。
+“我的报销”包括：新建报销、报销记录。新建报销即发起一个报销申请，需填写报销主体、报销部门、报销事由、报销总额、附件数目、报销单及发票扫描件、审核人及财务报销负责人；报销记录的功能是显示当前用户创建的未报销、已报销的报销情况。
+“审核记录”的功能是显示当前用户作为审核人的待审核、已审核的记录。
+“财务处理”的功能是显示当前用户作为财务报销负责人的待处理、已处理记录。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用包括三个模块：请假、请假记录、审核记录。
+“请假”的功能为填写请假申请信息；
+“请假记录”的功能是显示当前用户的请假历史记录，包括待审核、已审核；
+“审核记录”的功能是显示当前用户待审核、已审核的请假记录。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用包括三个模块：发起审批、我的记录、审核记录。
+“发起审批”的功能是添加一个审批申请，包括普通审批、合同审批，发起普通审批需填写流程名称、归属部门、审批内容、相关材料扫描件、备注、审核人及抄送人；发起合同审批需填写流程名称、归属部门、审批内容、合同编号、合作方、相关材料扫描件、备注、审核人及抄送人。
+“我的记录”的功能是显示当前用户发起的审批处理情况，包括待审核、审核中、已审核。
+“审核记录”的功能是显示当前用户作为审核人的待审核、已审核的审批。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用包括两个模块：预定会议室、会议查询。
+“预定会议室”的功能是填写一个会议信息并预定某会议室的某个时段；
+“会议查询”包括：待参加、已参加两个模块，分别显示当前用户未参加及已参加的会议。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用包括三个模块：项目立项、项目跟踪、审批记录。
+“项目立项”的功能为创建一个项目，项目内容包括：项目基本信息（项目名称、客户名称、客户负责人、建设类型、项目性质、委托书签订时间、合同签订时间、项目总投资、设计费金额、相关文件扫描件、相关部门负责人等），项目运行信息（项目规模描述、预计完成时间、已完成阶段、现所属阶段、批复情况、完成情况、图纸交付情况、岗位/人员、备注等），项目回款信息（回款金额、开票时间、备注），项目更改记录（项目信息修改记录，包括修改人、修改内容），项目反馈信息（相关负责人的反馈、评论信息）。
+“项目跟踪”包括当前用户参与的进行中和已结束的项目。
+“审批记录”包括当前用户作为审核人的待审批、审批中、已审批的项目记录。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计原型地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://app.xn--ebr05n.com/app/z6hK07iSDBEkaSC8xau0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://modao.io/app/z6hK07iSDBEkaSC8xau0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://modao.io/app/JuZ8z8GXeiltxGIHhIwi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://modao.io/app/ld8OJfccE1ZiQ7Zh7C2X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://modao.io/app/7Br2fRlblqVOqxNRRf49</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -243,6 +277,14 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -285,15 +327,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -320,9 +366,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -633,186 +684,186 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+      <c r="A1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -826,10 +877,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -852,7 +903,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="106.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -860,300 +911,96 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="7"/>
-      <c r="B5" s="6"/>
-    </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="7"/>
-      <c r="B6" s="6"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="7"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="7"/>
-      <c r="B7" s="6"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="7"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="7"/>
-      <c r="B8" s="6"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="7"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="7"/>
-      <c r="B9" s="6"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="7"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="7"/>
-      <c r="B10" s="6"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="7"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" s="7"/>
-      <c r="B11" s="6"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="7"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="7"/>
-      <c r="B12" s="6"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="7"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" s="7"/>
-      <c r="B13" s="6"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="7"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" s="7"/>
-      <c r="B14" s="6"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="7"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="8"/>
+      <c r="B15" s="7"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="9"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" s="10"/>
       <c r="B16" s="10"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B4:B14"/>
-    <mergeCell ref="A4:A14"/>
-    <mergeCell ref="A15:B16"/>
+    <mergeCell ref="B5:B15"/>
+    <mergeCell ref="A5:A15"/>
+    <mergeCell ref="A16:B17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="100" verticalDpi="100" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="100" verticalDpi="100" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="13.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="80.25" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="108.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="7"/>
-      <c r="B5" s="6"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="7"/>
-      <c r="B6" s="6"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="7"/>
-      <c r="B7" s="6"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="7"/>
-      <c r="B8" s="6"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="7"/>
-      <c r="B9" s="6"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="7"/>
-      <c r="B10" s="6"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" s="7"/>
-      <c r="B11" s="6"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="7"/>
-      <c r="B12" s="6"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" s="7"/>
-      <c r="B13" s="6"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" s="7"/>
-      <c r="B14" s="6"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="9"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A4:A14"/>
-    <mergeCell ref="B4:B14"/>
-    <mergeCell ref="A15:B16"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="81.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="116.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="7"/>
-      <c r="B5" s="6"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="7"/>
-      <c r="B6" s="6"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="7"/>
-      <c r="B7" s="6"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="7"/>
-      <c r="B8" s="6"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="7"/>
-      <c r="B9" s="6"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="7"/>
-      <c r="B10" s="6"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" s="7"/>
-      <c r="B11" s="6"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="7"/>
-      <c r="B12" s="6"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" s="7"/>
-      <c r="B13" s="6"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" s="7"/>
-      <c r="B14" s="6"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="9"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A4:A14"/>
-    <mergeCell ref="B4:B14"/>
-    <mergeCell ref="A15:B16"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1168,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1176,95 +1023,344 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="86.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="7"/>
-      <c r="B5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="7"/>
-      <c r="B6" s="6"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="7"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="7"/>
-      <c r="B7" s="6"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="7"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="7"/>
-      <c r="B8" s="6"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="7"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="7"/>
-      <c r="B9" s="6"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="7"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="7"/>
-      <c r="B10" s="6"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="7"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="7"/>
-      <c r="B11" s="6"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="7"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="7"/>
-      <c r="B12" s="6"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="7"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="7"/>
-      <c r="B13" s="6"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="7"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="7"/>
-      <c r="B14" s="6"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="7"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="8"/>
+      <c r="B15" s="7"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="9"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="10"/>
       <c r="B16" s="10"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A4:A14"/>
-    <mergeCell ref="B4:B14"/>
-    <mergeCell ref="A15:B16"/>
+    <mergeCell ref="A5:A15"/>
+    <mergeCell ref="B5:B15"/>
+    <mergeCell ref="A16:B17"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="80.25" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="124.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="8"/>
+      <c r="B6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="8"/>
+      <c r="B7" s="7"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="8"/>
+      <c r="B8" s="7"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="8"/>
+      <c r="B9" s="7"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="8"/>
+      <c r="B10" s="7"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="8"/>
+      <c r="B11" s="7"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="8"/>
+      <c r="B12" s="7"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="8"/>
+      <c r="B13" s="7"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="8"/>
+      <c r="B14" s="7"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="8"/>
+      <c r="B15" s="7"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="10"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A5:A15"/>
+    <mergeCell ref="B5:B15"/>
+    <mergeCell ref="A16:B17"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="80.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="132" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="8"/>
+      <c r="B6" s="7"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="8"/>
+      <c r="B7" s="7"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="8"/>
+      <c r="B8" s="7"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" s="8"/>
+      <c r="B9" s="7"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" s="8"/>
+      <c r="B10" s="7"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" s="8"/>
+      <c r="B11" s="7"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" s="8"/>
+      <c r="B12" s="7"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" s="8"/>
+      <c r="B13" s="7"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" s="8"/>
+      <c r="B14" s="7"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" s="8"/>
+      <c r="B15" s="7"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="10"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A5:A15"/>
+    <mergeCell ref="B5:B15"/>
+    <mergeCell ref="A16:B17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="100" verticalDpi="100" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1279,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1287,92 +1383,103 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="7"/>
-      <c r="B5" s="6"/>
-    </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="7"/>
-      <c r="B6" s="6"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="7"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="7"/>
-      <c r="B7" s="6"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="7"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="7"/>
-      <c r="B8" s="6"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="7"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="7"/>
-      <c r="B9" s="6"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="7"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="7"/>
-      <c r="B10" s="6"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="7"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" s="7"/>
-      <c r="B11" s="6"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="7"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="7"/>
-      <c r="B12" s="6"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="7"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" s="7"/>
-      <c r="B13" s="6"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="7"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" s="7"/>
-      <c r="B14" s="6"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="7"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="8"/>
+      <c r="B15" s="7"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="9"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" s="10"/>
       <c r="B16" s="10"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A4:A14"/>
-    <mergeCell ref="B4:B14"/>
-    <mergeCell ref="A15:B16"/>
+    <mergeCell ref="A5:A15"/>
+    <mergeCell ref="B5:B15"/>
+    <mergeCell ref="A16:B17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1382,87 +1489,90 @@
     <col min="3" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="169.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="7"/>
-      <c r="B5" s="6"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="7"/>
-      <c r="B6" s="6"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="7"/>
-      <c r="B7" s="6"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="7"/>
-      <c r="B8" s="6"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="7"/>
-      <c r="B9" s="6"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="7"/>
-      <c r="B10" s="6"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" s="7"/>
-      <c r="B11" s="6"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="7"/>
-      <c r="B12" s="6"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" s="7"/>
-      <c r="B13" s="6"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" s="7"/>
-      <c r="B14" s="6"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" s="8" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="8"/>
+      <c r="B5" s="7"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="8"/>
+      <c r="B6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="8"/>
+      <c r="B7" s="7"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="8"/>
+      <c r="B8" s="7"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="8"/>
+      <c r="B9" s="7"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="8"/>
+      <c r="B10" s="7"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="8"/>
+      <c r="B11" s="7"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="8"/>
+      <c r="B12" s="7"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="8"/>
+      <c r="B13" s="7"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="8"/>
+      <c r="B14" s="7"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="9"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
+      <c r="B15" s="10"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="3">
